--- a/Final Code/P_Results.xlsx
+++ b/Final Code/P_Results.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="P_0M_R30_C100_D10-70" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="P_R100_H100_D10-70" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P_R15_H20_D1-15" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3067,4 +3068,483 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>P_R15_H20_D1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refill_Counter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Failure_Counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Capacity at Decision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Per Thousand Episodes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Relative Change</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Time for Computation in (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>449.4579999999997</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3590043000003789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>448.3900000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.997623804671405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>448.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.998758504687869</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>446.9609999999995</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9944444197233107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>447.2499999999997</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9950874163993074</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>445.9470000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9921883691023419</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>448.4199999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9976905517311966</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>447.4549999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9955435213078867</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>450.7750000000004</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.002930195924871</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>450.0450000000004</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.001306017469932</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Result last 10k</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="K22" t="n">
+        <v>448.3601</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="K25" t="n">
+        <v>9237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Final Code/P_Results.xlsx
+++ b/Final Code/P_Results.xlsx
@@ -2,16 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="C108_N100_H100_D10-70_%_2.5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R108_N55_H50_D30-45" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="R108_N15_H20_D1-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="C108_N100_H100_D10-70" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="C101_N90_H70_D10-50" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R105_N5_H100_D1-99" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="C109_N90_H70_D10-50" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,19 +417,1631 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>R108_N55_H50_D30-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refill_Counter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Failure_Counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Capacity at Decision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Per Thousand Episodes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Relative Change</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Time for Computation in (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.277323500000421</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2773.999999999929</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Result last 10k</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>47</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>48</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>46</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>44</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>43</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>33</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>34</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>35</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>38</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>26</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>24</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>43</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>29</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>44</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>46</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>47</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>48</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>49</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>51</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>52</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>53</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>54</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>55</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>R108_N15_H20_D1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refill_Counter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Failure_Counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Capacity at Decision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Per Thousand Episodes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Relative Change</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Time for Computation in (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>446.7670000000002</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3673436000008223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>449.936</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.007093182799983</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>448.8989999999995</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.004772062394938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>449.1000000000008</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.005221961335552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>447.0540000000007</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.000642393014704</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>449.2300000000004</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.005512940749877</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>449.0169999999997</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.005036182171019</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>450.8969999999997</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.009244192162804</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>450.6209999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.008626420483159</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>445.223</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9965440598790863</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Result last 10k</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="K22" t="n">
+        <v>448.6744</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="K25" t="n">
+        <v>9044</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -443,7 +2058,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C108_N100_H100_D10-70_%_2.5</t>
+          <t>C108_N100_H100_D10-70</t>
         </is>
       </c>
     </row>
@@ -514,13 +2129,13 @@
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3106.190000000003</v>
+        <v>3113.114000000002</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.086442799998622</v>
+        <v>2.102765299998282</v>
       </c>
     </row>
     <row r="5">
@@ -543,10 +2158,10 @@
         <v>2000</v>
       </c>
       <c r="H5" t="n">
-        <v>3106.632</v>
+        <v>3103.417999999998</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000142296511159</v>
+        <v>0.9968854336847273</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +2169,25 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>3000</v>
       </c>
       <c r="H6" t="n">
-        <v>3101.145</v>
+        <v>3113.137999999998</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9983758237583654</v>
+        <v>1.000007709322561</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -589,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>4000</v>
       </c>
       <c r="H7" t="n">
-        <v>3110.015999999997</v>
+        <v>3103.470999999995</v>
       </c>
       <c r="I7" t="n">
-        <v>1.001231734053614</v>
+        <v>0.9969024584387186</v>
       </c>
     </row>
     <row r="8">
@@ -606,25 +2221,25 @@
         <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G8" t="n">
         <v>5000</v>
       </c>
       <c r="H8" t="n">
-        <v>3100.085000000005</v>
+        <v>3110.534999999996</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9980345696818295</v>
+        <v>0.999171569046297</v>
       </c>
     </row>
     <row r="9">
@@ -635,22 +2250,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G9" t="n">
         <v>6000</v>
       </c>
       <c r="H9" t="n">
-        <v>3106.694000000005</v>
+        <v>3104.252999999998</v>
       </c>
       <c r="I9" t="n">
-        <v>1.00016225665526</v>
+        <v>0.9971536538655493</v>
       </c>
     </row>
     <row r="10">
@@ -658,25 +2273,25 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
         <v>7000</v>
       </c>
       <c r="H10" t="n">
-        <v>3106.223000000004</v>
+        <v>3105.037000000003</v>
       </c>
       <c r="I10" t="n">
-        <v>1.000010623947666</v>
+        <v>0.9974054917359276</v>
       </c>
     </row>
     <row r="11">
@@ -684,25 +2299,25 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
         <v>8000</v>
       </c>
       <c r="H11" t="n">
-        <v>3101.708</v>
+        <v>3101.013999999997</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9985570747443</v>
+        <v>0.9961132165413779</v>
       </c>
     </row>
     <row r="12">
@@ -710,25 +2325,25 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
         <v>9000</v>
       </c>
       <c r="H12" t="n">
-        <v>3103.220000000004</v>
+        <v>3106.155999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9990438447100792</v>
+        <v>0.9977649389004055</v>
       </c>
     </row>
     <row r="13">
@@ -736,25 +2351,25 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
         <v>10000</v>
       </c>
       <c r="H13" t="n">
-        <v>3110.780000000001</v>
+        <v>3101.507999999998</v>
       </c>
       <c r="I13" t="n">
-        <v>1.001477694538969</v>
+        <v>0.9962719000974573</v>
       </c>
     </row>
     <row r="14">
@@ -765,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -779,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -788,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -796,16 +2411,16 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -813,16 +2428,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -833,13 +2448,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -850,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -864,16 +2479,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -881,16 +2496,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -903,19 +2518,19 @@
         <v>36</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>3105.2693</v>
+        <v>3106.1644</v>
       </c>
     </row>
     <row r="23">
@@ -926,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -940,16 +2555,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -962,19 +2577,19 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="K25" t="n">
-        <v>85422</v>
+        <v>85201</v>
       </c>
     </row>
     <row r="26">
@@ -985,13 +2600,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -999,16 +2614,16 @@
         <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -1033,16 +2648,16 @@
         <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -1050,16 +2665,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1070,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1087,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -1101,16 +2716,16 @@
         <v>100</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -1118,16 +2733,16 @@
         <v>97</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1138,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -1152,16 +2767,16 @@
         <v>92</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1169,16 +2784,16 @@
         <v>94</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
@@ -1186,16 +2801,16 @@
         <v>95</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1203,16 +2818,16 @@
         <v>96</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -1223,13 +2838,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -1237,16 +2852,16 @@
         <v>98</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1257,13 +2872,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
@@ -1274,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -1288,16 +2903,16 @@
         <v>84</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -1308,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -1322,16 +2937,16 @@
         <v>82</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1339,16 +2954,16 @@
         <v>81</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -1356,16 +2971,16 @@
         <v>78</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -1373,16 +2988,16 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -1390,16 +3005,16 @@
         <v>71</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -1407,16 +3022,16 @@
         <v>70</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -1427,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -1441,16 +3056,16 @@
         <v>77</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1458,16 +3073,16 @@
         <v>79</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
@@ -1478,13 +3093,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56">
@@ -1495,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1509,16 +3124,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -1526,16 +3141,16 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -1546,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1563,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -1580,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
@@ -1597,13 +3212,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63">
@@ -1614,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1631,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -1645,16 +3260,16 @@
         <v>42</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -1665,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -1682,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
@@ -1699,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69">
@@ -1716,13 +3331,13 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -1730,16 +3345,16 @@
         <v>51</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -1747,16 +3362,16 @@
         <v>50</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D71" t="n">
         <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
@@ -1764,16 +3379,16 @@
         <v>52</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -1784,13 +3399,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
         <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74">
@@ -1801,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" t="n">
         <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1818,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D75" t="n">
         <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76">
@@ -1832,16 +3447,16 @@
         <v>41</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -1852,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D77" t="n">
         <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
@@ -1869,13 +3484,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79">
@@ -1886,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
         <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -1903,13 +3518,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
         <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
@@ -1917,16 +3532,16 @@
         <v>74</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D81" t="n">
         <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82">
@@ -1937,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
@@ -1951,16 +3566,16 @@
         <v>66</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
@@ -1971,13 +3586,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85">
@@ -1985,16 +3600,16 @@
         <v>67</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -2005,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
@@ -2022,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
@@ -2039,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
@@ -2056,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2073,13 +3688,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91">
@@ -2087,16 +3702,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
@@ -2107,13 +3722,13 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -2124,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
@@ -2141,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -2155,16 +3770,16 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
+        <v>33</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
         <v>41</v>
-      </c>
-      <c r="D95" t="n">
-        <v>6</v>
-      </c>
-      <c r="E95" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -2172,16 +3787,16 @@
         <v>4</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -2189,16 +3804,16 @@
         <v>3</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E97" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
@@ -2206,16 +3821,16 @@
         <v>5</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -2226,13 +3841,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
@@ -2243,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
@@ -2257,16 +3872,16 @@
         <v>6</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
@@ -2277,13 +3892,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103">
@@ -2294,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -2311,13 +3926,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
@@ -2325,16 +3940,3823 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
+        <v>38</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C101_N90_H70_D10-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refill_Counter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Failure_Counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Capacity at Decision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Per Thousand Episodes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Relative Change</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Time for Computation in (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2614.299</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.269776800001637</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2618.907000000003</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.001762613993275</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2614.06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.999908579699568</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2616.802999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.000957809340094</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2617.772999999998</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.001328845705866</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2610.233999999998</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9984450898692147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>46</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2612.518999999997</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9993191291432224</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2617.801000000004</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.001339556033952</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2618.255000000005</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.001513216353602</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2622.857999999998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.003273917788286</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>54</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Result last 10k</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>42</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2616.3509</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>49</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>155384</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
         <v>45</v>
       </c>
-      <c r="D105" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
         <v>7</v>
       </c>
-      <c r="E105" t="n">
-        <v>97</v>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>47</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>17</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>43</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>19</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>19</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>19</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>21</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>21</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>80</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>79</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>23</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>77</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>73</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>24</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>24</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>78</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>24</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>24</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>24</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>25</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>88</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>26</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>89</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>26</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>87</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>27</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>86</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>27</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>28</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>28</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>29</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>69</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>29</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>68</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>29</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>61</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>72</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>74</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>67</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>31</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>31</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>32</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>R105_N5_H100_D1-99</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refill_Counter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Failure_Counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Capacity at Decision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Per Thousand Episodes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Relative Change</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Time for Computation in (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>183.7310000000004</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1857762999989063</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>182.222</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9917869058569302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>183.7870000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.000304793420815</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>185.3049999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.008566872220799</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>184.6510000000002</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.005007320484838</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>183.9569999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.001230059162578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>183.6520000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9995700235670613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>182.8889999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9954172132084379</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>184.6980000000001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.005263129248737</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>184.9900000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.006852409228708</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Result last 10k</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="K22" t="n">
+        <v>183.9882</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="K25" t="n">
+        <v>10674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>C109_N90_H70_D10-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Refill_Counter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Failure_Counter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Capacity at Decision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Per Thousand Episodes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Average Distance</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Relative Change</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Time for Computation in (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2618.098999999998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.277084800000011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2616.887000000002</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9995370686899171</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>51</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2613.542999999995</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.998259806065392</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2620.636999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.000969405664186</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2618.677999999998</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.000221152828827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2611.753999999997</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9975764858395341</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2612.876999999996</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9980054230187621</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2621.089000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.001142050014152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2617.972999999999</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9999518734776646</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2621.783999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.00140750980005</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Result last 10k</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>41</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2617.3321</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>40</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Failures</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="K25" t="n">
+        <v>155548</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>22</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>47</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>43</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>40</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>16</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>16</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>18</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>19</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>80</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>79</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>19</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>77</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>19</v>
+      </c>
+      <c r="D68" t="n">
+        <v>11</v>
+      </c>
+      <c r="E68" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>73</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>19</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11</v>
+      </c>
+      <c r="E69" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12</v>
+      </c>
+      <c r="E70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>19</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12</v>
+      </c>
+      <c r="E71" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>19</v>
+      </c>
+      <c r="D72" t="n">
+        <v>13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>78</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>19</v>
+      </c>
+      <c r="D73" t="n">
+        <v>13</v>
+      </c>
+      <c r="E73" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>81</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>19</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13</v>
+      </c>
+      <c r="E74" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>82</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>83</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20</v>
+      </c>
+      <c r="D76" t="n">
+        <v>14</v>
+      </c>
+      <c r="E76" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>84</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>20</v>
+      </c>
+      <c r="D77" t="n">
+        <v>14</v>
+      </c>
+      <c r="E77" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20</v>
+      </c>
+      <c r="D78" t="n">
+        <v>14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>88</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>20</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15</v>
+      </c>
+      <c r="E79" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>89</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>87</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>86</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>90</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>21</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>21</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15</v>
+      </c>
+      <c r="E84" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>21</v>
+      </c>
+      <c r="D85" t="n">
+        <v>16</v>
+      </c>
+      <c r="E85" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>69</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>21</v>
+      </c>
+      <c r="D86" t="n">
+        <v>16</v>
+      </c>
+      <c r="E86" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>68</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>22</v>
+      </c>
+      <c r="D87" t="n">
+        <v>16</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>22</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17</v>
+      </c>
+      <c r="E88" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>61</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22</v>
+      </c>
+      <c r="D89" t="n">
+        <v>17</v>
+      </c>
+      <c r="E89" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>72</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>23</v>
+      </c>
+      <c r="D90" t="n">
+        <v>17</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>74</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>23</v>
+      </c>
+      <c r="D91" t="n">
+        <v>17</v>
+      </c>
+      <c r="E91" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>24</v>
+      </c>
+      <c r="D92" t="n">
+        <v>17</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>67</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>24</v>
+      </c>
+      <c r="D93" t="n">
+        <v>17</v>
+      </c>
+      <c r="E93" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>25</v>
+      </c>
+      <c r="D95" t="n">
+        <v>17</v>
+      </c>
+      <c r="E95" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
